--- a/biology/Botanique/Orobanche/Orobanche.xlsx
+++ b/biology/Botanique/Orobanche/Orobanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Orobanche (Orobanche) est un genre de plantes herbacées parasites, sans chlorophylle, de la famille des Orobanchacées comprenant environ 150 espèces originaires des régions tempérées de l'hémisphère nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire d'Orobanche vient du grec ancien ὀροβάγχη, orobágkhê, composé de ὄροβος [órobos, sorte d'ers ou de vesce] et de ἄγχω, [ágkhô, étrangler, étouffer] en raison du parasitisme de ces plantes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire d'Orobanche vient du grec ancien ὀροβάγχη, orobágkhê, composé de ὄροβος [órobos, sorte d'ers ou de vesce] et de ἄγχω, [ágkhô, étrangler, étouffer] en raison du parasitisme de ces plantes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les orobanches sont des plantes herbacées de petite taille, de 10 à 60 cm selon les espèces. 
 Elles se reconnaissent principalement à leur tige écaillée, dressée, de couleur jaune paille complètement dépourvue de chlorophylle, généralement non ramifiée, aux feuilles en forme d'écailles triangulaires. 
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes psammophytes sans chlorophylle dépendent entièrement de plantes-hôtes pour les éléments nutritifs dont elles ont besoin : ce sont des holoparasites. Les semences d'orobanches émettent après la germination une pousse à l'aspect de racine qui se fixe sur les racines des plantes-hôtes les plus proches, et dès lors la plante reçoit l'eau et les éléments nutritifs de la plante-hôte.
 Certaines espèces sont très spécialisées et dépendent d'une seule espèce-hôte, comme l'orobanche du lierre (Orobanche hederae), qui ne peut parasiter que le lierre ou les Aralia cultivés (qui appartiennent à la même famille que le lierre). 
@@ -610,9 +628,11 @@
           <t>Nuisance pour l'agriculture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces d'orobanches sont des nuisances pour les plantes de grande culture dont elles affectent le rendement, en particulier dans les régions tempérées les espèces suivantes : Orobanche aegyptiaca, Orobanche crenata, Orobanche foetida, Orobanche cernua, et Orobanche ramosa[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces d'orobanches sont des nuisances pour les plantes de grande culture dont elles affectent le rendement, en particulier dans les régions tempérées les espèces suivantes : Orobanche aegyptiaca, Orobanche crenata, Orobanche foetida, Orobanche cernua, et Orobanche ramosa. 
 L'orobanche du chanvre (Orobanche ramosa), originaire d'Europe centrale et méridionale, mais largement naturalisée ailleurs, constitue une menace importante pour les cultures dans certaines régions du monde. Les plantes parasitées sont nombreuses : tomates, aubergines, pommes de terre, choux, coléus, piments, tournesols, céleris et haricots. Dans les régions fortement infestées, cette orobanche peut ruiner les cultures concernées.
 </t>
         </is>
@@ -642,9 +662,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (15 avril 2021)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (15 avril 2021) :
 Orobanche aconiti-lycoctoni Moreno Mor., G.Gómez, Ó.Sánchez, Carlón &amp; M.Laínz
 Orobanche aegyptiaca Pers.
 Orobanche alba Stephan ex Willd.
@@ -859,9 +881,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (15 avril 2021)[3], les genres suivants sont inclus dans le genre Orobanche et sont donc synonymes :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (15 avril 2021), les genres suivants sont inclus dans le genre Orobanche et sont donc synonymes :
 Aphyllon Mitch.
 Boulardia F.W.Schultz
 Catodiacrum Dulac
